--- a/docs/Sputum_NanoporeData_EBI-server_25082021.xlsx
+++ b/docs/Sputum_NanoporeData_EBI-server_25082021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zi/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelhall/Projects/basecall-tb-sputum-project/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A820763-28A8-554D-8F9A-9FE4CF854C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA4EE92-0C96-B441-8F24-07F0F7ABBAB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28320" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="1" r:id="rId1"/>
@@ -184,9 +184,6 @@
     <t>P231</t>
   </si>
   <si>
-    <t>PCtrl-7</t>
-  </si>
-  <si>
     <t>P201-P205</t>
   </si>
   <si>
@@ -218,6 +215,9 @@
   </si>
   <si>
     <t xml:space="preserve">Singleplex RUN </t>
+  </si>
+  <si>
+    <t>PCtrl-6</t>
   </si>
 </sst>
 </file>
@@ -916,7 +916,7 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -950,34 +950,34 @@
     </row>
     <row r="2" spans="1:11" s="8" customFormat="1" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="45" t="s">
-        <v>65</v>
-      </c>
       <c r="F2" s="49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G2" s="44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="I2" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="43" t="s">
         <v>62</v>
-      </c>
-      <c r="J2" s="43" t="s">
-        <v>63</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>3</v>
@@ -994,7 +994,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="41"/>
@@ -1005,7 +1005,7 @@
         <v>8</v>
       </c>
       <c r="I3" s="58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J3" s="40"/>
       <c r="K3" s="14"/>
@@ -1331,7 +1331,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>6</v>
@@ -1346,7 +1346,7 @@
         <v>8</v>
       </c>
       <c r="I16" s="58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J16" s="52" t="s">
         <v>24</v>
@@ -1644,7 +1644,7 @@
         <v>6</v>
       </c>
       <c r="D28" s="58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="52"/>
@@ -1655,7 +1655,7 @@
         <v>8</v>
       </c>
       <c r="I28" s="58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J28" s="52"/>
       <c r="K28" s="14"/>
@@ -1995,7 +1995,7 @@
     </row>
     <row r="42" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B42" s="23" t="s">
         <v>14</v>
@@ -2006,7 +2006,7 @@
         <v>6</v>
       </c>
       <c r="F42" s="42" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G42" s="26" t="s">
         <v>7</v>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="I42" s="26"/>
       <c r="J42" s="42" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="K42" s="27"/>
     </row>
